--- a/src/test/resources/test_data/HRMData.xlsx
+++ b/src/test/resources/test_data/HRMData.xlsx
@@ -3,20 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation Session\automation_workspace\HealthManagementAutomation\src\test\resources\test_data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="2910" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="validLoginTest" sheetId="1" r:id="rId1"/>
     <sheet name="invalidLoginTest" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:N7"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -49,9 +45,6 @@
     <t>kim123</t>
   </si>
   <si>
-    <t>Invalid Credentials</t>
-  </si>
-  <si>
     <t>bala</t>
   </si>
   <si>
@@ -68,6 +61,9 @@
   </si>
   <si>
     <t>Dashboard</t>
+  </si>
+  <si>
+    <t>Invalid credentials</t>
   </si>
 </sst>
 </file>
@@ -387,7 +383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -401,18 +397,18 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -425,8 +421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,7 +449,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -464,18 +460,18 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
